--- a/Codigos_calculos/p1e0.xlsx
+++ b/Codigos_calculos/p1e0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\Uandes\8vo_semestre\MCOC\Proyecto-1-MCOC\Codigos_calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A3A6D8-281E-4E0B-B3A8-AED8E6DF1A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99082D08-5150-476C-8F1D-2A220D7B342B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B11FC91D-B974-45E3-B164-1D8A3A0F1832}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{B11FC91D-B974-45E3-B164-1D8A3A0F1832}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso 1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
   <si>
     <t>a1</t>
   </si>
@@ -130,9 +130,6 @@
     <t>hi</t>
   </si>
   <si>
-    <t>hp</t>
-  </si>
-  <si>
     <t>uw (kPa)</t>
   </si>
   <si>
@@ -161,6 +158,15 @@
   </si>
   <si>
     <t>u neta (kPa)</t>
+  </si>
+  <si>
+    <t>np nd</t>
+  </si>
+  <si>
+    <t>ns Nf</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -550,15 +556,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BD4664-E7D0-44C7-8F54-97C126AFA122}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A12" sqref="A12:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -573,7 +579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -607,7 +613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -615,7 +621,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1">
         <f>E3-E2</f>
@@ -625,7 +631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -633,7 +639,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
         <f>E4/E2</f>
@@ -641,7 +647,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -658,7 +664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -676,7 +682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -692,7 +698,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
@@ -701,7 +707,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -721,13 +727,10 @@
         <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -740,16 +743,19 @@
         <v>22.400000000000002</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -769,19 +775,15 @@
         <v>22.400000000000002</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14:F19" si="2">E14-C14</f>
-        <v>3.8000000000000007</v>
+        <f>(E14-C14)*$E$2/1000</f>
+        <v>37.278000000000006</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G19" si="3">F14*$E$2/1000</f>
+        <f>F14</f>
         <v>37.278000000000006</v>
       </c>
-      <c r="H14" s="1">
-        <f>G14</f>
-        <v>37.278000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -801,19 +803,15 @@
         <v>20.560000000000002</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>7.360000000000003</v>
+        <f>(E15-C15)*$E$2/1000</f>
+        <v>72.201600000000042</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
+        <f>F15</f>
         <v>72.201600000000042</v>
       </c>
-      <c r="H15" s="1">
-        <f>G15</f>
-        <v>72.201600000000042</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -833,19 +831,15 @@
         <v>18.720000000000002</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>8.5200000000000031</v>
+        <f>(E16-C16)*$E$2/1000</f>
+        <v>83.581200000000024</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>83.581200000000024</v>
-      </c>
-      <c r="H16" s="1">
-        <f>G16-G19</f>
+        <f>F16-F19</f>
         <v>54.151200000000024</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -865,19 +859,15 @@
         <v>16.880000000000003</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>6.6800000000000033</v>
+        <f>(E17-C17)*$E$2/1000</f>
+        <v>65.530800000000028</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="3"/>
-        <v>65.530800000000028</v>
-      </c>
-      <c r="H17" s="1">
-        <f>G17-G18</f>
+        <f>F17-F18</f>
         <v>18.050400000000025</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -897,16 +887,12 @@
         <v>15.04</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>4.84</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="3"/>
+        <f>(E18-C18)*$E$2/1000</f>
         <v>47.480400000000003</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -926,40 +912,49 @@
         <v>13.2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="3"/>
+        <f>(E19-C19)*$E$2/1000</f>
         <v>29.43</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B5+B6</f>
+        <v>13.2</v>
+      </c>
+      <c r="C20" s="1">
+        <f>B20</f>
+        <v>13.2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1">
         <f>$E$6*$E$7*$E$9/E8*86400</f>
         <v>43.877376000000005</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B23" s="1">
         <f>($E$7/E8)/((B14-B17)+(B19-B18))</f>
@@ -967,18 +962,18 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="str">
         <f>IF(E5&lt;=B23,"Hay licuefacción","No hay licuefacción")</f>
         <v>No hay licuefacción</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <f>E5/B23</f>
@@ -987,15 +982,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395D53F3-2C61-44EC-A587-17AF17A46E89}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="A12" sqref="A12:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,7 +999,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +1014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1056,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1">
         <f>E3-E2</f>
@@ -1070,7 +1066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1078,7 +1074,7 @@
         <v>12.6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
         <f>E4/E2</f>
@@ -1086,7 +1082,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1103,7 +1099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +1117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1133,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1146,7 +1142,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1166,13 +1162,10 @@
         <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1185,16 +1178,19 @@
         <v>22.400000000000002</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1210,23 +1206,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:E18" si="1">SUM($B$3:$B$4)-$E$7*D14/$E$8</f>
+        <f t="shared" ref="E14:E19" si="1">SUM($B$3:$B$4)-$E$7*D14/$E$8</f>
         <v>22.400000000000002</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14:F18" si="2">E14-C14</f>
-        <v>3.8000000000000007</v>
+        <f>(E14-C14)*$E$2/1000</f>
+        <v>37.278000000000006</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G18" si="3">F14*$E$2/1000</f>
+        <f>F14</f>
         <v>37.278000000000006</v>
       </c>
-      <c r="H14" s="1">
-        <f>G14</f>
-        <v>37.278000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,19 +1238,15 @@
         <v>21.040000000000003</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>5.4400000000000031</v>
+        <f>(E15-C15)*$E$2/1000</f>
+        <v>53.366400000000027</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
+        <f>F15</f>
         <v>53.366400000000027</v>
       </c>
-      <c r="H15" s="1">
-        <f>G15</f>
-        <v>53.366400000000027</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1278,19 +1266,15 @@
         <v>19.68</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>7.08</v>
+        <f>(E16-C16)*$E$2/1000</f>
+        <v>69.454800000000006</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>69.454800000000006</v>
-      </c>
-      <c r="H16" s="1">
-        <f>G16-G19</f>
+        <f>F16-F19</f>
         <v>40.024800000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1310,19 +1294,15 @@
         <v>18.32</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>8.120000000000001</v>
+        <f>(E17-C17)*$E$2/1000</f>
+        <v>79.657200000000017</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="3"/>
-        <v>79.657200000000017</v>
-      </c>
-      <c r="H17" s="1">
-        <f>G17-G18</f>
+        <f>F17-F18</f>
         <v>13.3416</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1342,16 +1322,12 @@
         <v>16.96</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>6.7600000000000016</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="3"/>
+        <f>(E18-C18)*$E$2/1000</f>
         <v>66.315600000000018</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1367,44 +1343,53 @@
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19" si="4">SUM($B$3:$B$4)-$E$7*D19/$E$8</f>
+        <f t="shared" si="1"/>
         <v>15.6</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19" si="5">E19-C19</f>
-        <v>3</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" ref="G19" si="6">F19*$E$2/1000</f>
+        <f>(E19-C19)*$E$2/1000</f>
         <v>29.43</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B5+B6</f>
+        <v>15.6</v>
+      </c>
+      <c r="C20" s="1">
+        <f>B20</f>
+        <v>15.6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <f>$E$6*$E$7*$E$9/E8*86400</f>
         <v>32.431104000000005</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B23" s="1">
         <f>($E$7)/((B14-B17)+(B19-B18))</f>
@@ -1412,18 +1397,18 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="str">
         <f>IF(E5&lt;=B23,"Hay licuefacción","No hay licuefacción")</f>
         <v>No hay licuefacción</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <f>E5/B23</f>
@@ -1437,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1BF4A4-05E0-4940-B93B-2A8E38E6C0D0}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I12:I13"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,7 +1433,7 @@
     <col min="5" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1463,7 +1448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1497,7 +1482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1490,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1">
         <f>E3-E2</f>
@@ -1515,7 +1500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
         <f>E4/E2</f>
@@ -1531,7 +1516,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1548,7 +1533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1566,7 +1551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1575,23 +1560,23 @@
         <v>5.8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1611,13 +1596,10 @@
         <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1630,16 +1612,19 @@
         <v>22.400000000000002</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1659,19 +1644,15 @@
         <v>22.400000000000002</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14:F19" si="2">E14-C14</f>
-        <v>3.8000000000000007</v>
+        <f>(E14-C14)*$E$2/1000</f>
+        <v>37.278000000000006</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G19" si="3">F14*$E$2/1000</f>
+        <f>F14</f>
         <v>37.278000000000006</v>
       </c>
-      <c r="H14" s="1">
-        <f>G14</f>
-        <v>37.278000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1691,19 +1672,15 @@
         <v>21.32</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>4.32</v>
+        <f>(E15-C15)*$E$2/1000</f>
+        <v>42.379200000000004</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
+        <f>F15</f>
         <v>42.379200000000004</v>
       </c>
-      <c r="H15" s="1">
-        <f>G15</f>
-        <v>42.379200000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1723,19 +1700,15 @@
         <v>20.240000000000002</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>4.240000000000002</v>
+        <f>(E16-C16)*$E$2/1000</f>
+        <v>41.594400000000014</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>41.594400000000014</v>
-      </c>
-      <c r="H16" s="1">
-        <f>G16-G19</f>
+        <f>F16-F19</f>
         <v>31.784400000000012</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1755,19 +1728,15 @@
         <v>19.16</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>8.9600000000000009</v>
+        <f>(E17-C17)*$E$2/1000</f>
+        <v>87.897600000000011</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="3"/>
-        <v>87.897600000000011</v>
-      </c>
-      <c r="H17" s="1">
-        <f>G17-G18</f>
+        <f>F17-F18</f>
         <v>10.594800000000021</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1787,16 +1756,12 @@
         <v>18.079999999999998</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>7.879999999999999</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="3"/>
+        <f>(E18-C18)*$E$2/1000</f>
         <v>77.302799999999991</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1816,40 +1781,49 @@
         <v>17</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="3"/>
+        <f>(E19-C19)*$E$2/1000</f>
         <v>9.81</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B5+B6</f>
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <f>B20</f>
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3">
         <f>$E$6*$E$7*$E$9/E8*86400</f>
         <v>25.75411200000001</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B23" s="1">
         <f>($E$7)/((B14-B17)+(B19-B18))</f>
@@ -1857,18 +1831,18 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="str">
         <f>IF(E5&lt;=B23,"Hay licuefacción","No hay licuefacción")</f>
         <v>No hay licuefacción</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <f>E5/B23</f>

--- a/Codigos_calculos/p1e0.xlsx
+++ b/Codigos_calculos/p1e0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\Uandes\8vo_semestre\MCOC\Proyecto-1-MCOC\Codigos_calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99082D08-5150-476C-8F1D-2A220D7B342B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4BC650-0366-4415-BC8F-0ED116BD0C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{B11FC91D-B974-45E3-B164-1D8A3A0F1832}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{B11FC91D-B974-45E3-B164-1D8A3A0F1832}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso 1" sheetId="2" r:id="rId1"/>
@@ -217,11 +217,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +558,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +774,7 @@
         <v>22.400000000000002</v>
       </c>
       <c r="F14" s="1">
-        <f>(E14-C14)*$E$2/1000</f>
+        <f t="shared" ref="F14:F19" si="2">(E14-C14)*$E$2/1000</f>
         <v>37.278000000000006</v>
       </c>
       <c r="G14" s="1">
@@ -803,7 +802,7 @@
         <v>20.560000000000002</v>
       </c>
       <c r="F15" s="1">
-        <f>(E15-C15)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>72.201600000000042</v>
       </c>
       <c r="G15" s="1">
@@ -831,7 +830,7 @@
         <v>18.720000000000002</v>
       </c>
       <c r="F16" s="1">
-        <f>(E16-C16)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>83.581200000000024</v>
       </c>
       <c r="G16" s="1">
@@ -859,7 +858,7 @@
         <v>16.880000000000003</v>
       </c>
       <c r="F17" s="1">
-        <f>(E17-C17)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>65.530800000000028</v>
       </c>
       <c r="G17" s="1">
@@ -887,7 +886,7 @@
         <v>15.04</v>
       </c>
       <c r="F18" s="1">
-        <f>(E18-C18)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>47.480400000000003</v>
       </c>
       <c r="G18" s="1"/>
@@ -912,7 +911,7 @@
         <v>13.2</v>
       </c>
       <c r="F19" s="1">
-        <f>(E19-C19)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>29.43</v>
       </c>
       <c r="G19" s="1"/>
@@ -957,8 +956,8 @@
         <v>33</v>
       </c>
       <c r="B23" s="1">
-        <f>($E$7/E8)/((B14-B17)+(B19-B18))</f>
-        <v>0.21904761904761905</v>
+        <f>($E$7)/((B14-B17)+(B19-B18))</f>
+        <v>1.0952380952380953</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -977,7 +976,7 @@
       </c>
       <c r="B26">
         <f>E5/B23</f>
-        <v>5.2074192261667331</v>
+        <v>1.0414838452333466</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +990,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,7 +1209,7 @@
         <v>22.400000000000002</v>
       </c>
       <c r="F14" s="1">
-        <f>(E14-C14)*$E$2/1000</f>
+        <f t="shared" ref="F14:F19" si="2">(E14-C14)*$E$2/1000</f>
         <v>37.278000000000006</v>
       </c>
       <c r="G14" s="1">
@@ -1238,7 +1237,7 @@
         <v>21.040000000000003</v>
       </c>
       <c r="F15" s="1">
-        <f>(E15-C15)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>53.366400000000027</v>
       </c>
       <c r="G15" s="1">
@@ -1266,7 +1265,7 @@
         <v>19.68</v>
       </c>
       <c r="F16" s="1">
-        <f>(E16-C16)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>69.454800000000006</v>
       </c>
       <c r="G16" s="1">
@@ -1294,7 +1293,7 @@
         <v>18.32</v>
       </c>
       <c r="F17" s="1">
-        <f>(E17-C17)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>79.657200000000017</v>
       </c>
       <c r="G17" s="1">
@@ -1322,7 +1321,7 @@
         <v>16.96</v>
       </c>
       <c r="F18" s="1">
-        <f>(E18-C18)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>66.315600000000018</v>
       </c>
       <c r="G18" s="1"/>
@@ -1347,7 +1346,7 @@
         <v>15.6</v>
       </c>
       <c r="F19" s="1">
-        <f>(E19-C19)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>29.43</v>
       </c>
       <c r="G19" s="1"/>
@@ -1424,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1BF4A4-05E0-4940-B93B-2A8E38E6C0D0}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1644,7 +1643,7 @@
         <v>22.400000000000002</v>
       </c>
       <c r="F14" s="1">
-        <f>(E14-C14)*$E$2/1000</f>
+        <f t="shared" ref="F14:F19" si="2">(E14-C14)*$E$2/1000</f>
         <v>37.278000000000006</v>
       </c>
       <c r="G14" s="1">
@@ -1672,7 +1671,7 @@
         <v>21.32</v>
       </c>
       <c r="F15" s="1">
-        <f>(E15-C15)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>42.379200000000004</v>
       </c>
       <c r="G15" s="1">
@@ -1700,7 +1699,7 @@
         <v>20.240000000000002</v>
       </c>
       <c r="F16" s="1">
-        <f>(E16-C16)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>41.594400000000014</v>
       </c>
       <c r="G16" s="1">
@@ -1728,7 +1727,7 @@
         <v>19.16</v>
       </c>
       <c r="F17" s="1">
-        <f>(E17-C17)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>87.897600000000011</v>
       </c>
       <c r="G17" s="1">
@@ -1756,7 +1755,7 @@
         <v>18.079999999999998</v>
       </c>
       <c r="F18" s="1">
-        <f>(E18-C18)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>77.302799999999991</v>
       </c>
       <c r="G18" s="1"/>
@@ -1781,7 +1780,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="1">
-        <f>(E19-C19)*$E$2/1000</f>
+        <f t="shared" si="2"/>
         <v>9.81</v>
       </c>
       <c r="G19" s="1"/>
@@ -1813,7 +1812,7 @@
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <f>$E$6*$E$7*$E$9/E8*86400</f>
         <v>25.75411200000001</v>
       </c>

--- a/Codigos_calculos/p1e0.xlsx
+++ b/Codigos_calculos/p1e0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\Uandes\8vo_semestre\MCOC\Proyecto-1-MCOC\Codigos_calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4BC650-0366-4415-BC8F-0ED116BD0C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86D0E1-9908-444C-A336-170F519A8017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{B11FC91D-B974-45E3-B164-1D8A3A0F1832}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B11FC91D-B974-45E3-B164-1D8A3A0F1832}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso 1" sheetId="2" r:id="rId1"/>
@@ -238,6 +238,3136 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Presión neta caso</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>caso 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Caso 1'!$J$13:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-37.278000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-72.201600000000042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-54.151200000000024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-18.050400000000025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Caso 1'!$I$13:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CD0-4CA5-AA4C-D59761275789}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1827563232"/>
+        <c:axId val="1827565632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1827563232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Presión (-kPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1827565632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1827565632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Altura</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t> geodesica (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1827563232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Presiones netas caso 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Caso 2'!$J$13:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-37.278000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-53.366400000000027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-40.024800000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13.3416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Caso 2'!$I$13:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-553C-4933-8960-A1A74715910D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="94656576"/>
+        <c:axId val="94668576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94656576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Presión (-kPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94668576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94668576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Altura geodésica (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94656576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Presiones netas caso 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Caso 3'!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-37.278000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-42.379200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-31.784400000000012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.594800000000021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Caso 3'!$C$13:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B0E-4E55-95EE-49635A9A1E4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="38302352"/>
+        <c:axId val="38303792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="38302352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Presión(-kPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44259711286089237"/>
+              <c:y val="0.88331000291630213"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38303792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="38303792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Altura geodésica (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38302352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EA4940-E528-3A09-D3C0-47C483B02930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3571D67-6872-68E4-3DBA-E9E8A39C3386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5D488C-C2D4-7D0A-4B17-9A3CC63CBA8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -555,15 +3685,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BD4664-E7D0-44C7-8F54-97C126AFA122}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -578,7 +3708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +3725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +3742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -630,7 +3760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -646,7 +3776,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -663,7 +3793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -681,7 +3811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -697,7 +3827,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
@@ -706,7 +3836,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -729,7 +3859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -753,8 +3883,14 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -781,8 +3917,14 @@
         <f>F14</f>
         <v>37.278000000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J14">
+        <v>-37.278000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -809,8 +3951,14 @@
         <f>F15</f>
         <v>72.201600000000042</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>13.2</v>
+      </c>
+      <c r="J15">
+        <v>-72.201600000000042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -837,8 +3985,14 @@
         <f>F16-F19</f>
         <v>54.151200000000024</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J16">
+        <v>-54.151200000000024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -865,8 +4019,14 @@
         <f>F17-F18</f>
         <v>18.050400000000025</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J17">
+        <v>-18.050400000000025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -891,7 +4051,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -916,7 +4076,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -939,7 +4099,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -951,7 +4111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -961,7 +4121,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -970,7 +4130,7 @@
         <v>No hay licuefacción</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -982,15 +4142,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395D53F3-2C61-44EC-A587-17AF17A46E89}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,7 +4159,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1013,7 +4174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +4191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +4208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1065,7 +4226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1081,7 +4242,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +4259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +4277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +4293,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1141,7 +4302,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +4325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1188,8 +4349,15 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="J13">
+        <f>G13*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1216,8 +4384,15 @@
         <f>F14</f>
         <v>37.278000000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J17" si="3">G14*-1</f>
+        <v>-37.278000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,8 +4419,15 @@
         <f>F15</f>
         <v>53.366400000000027</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>15.6</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>-53.366400000000027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1272,8 +4454,15 @@
         <f>F16-F19</f>
         <v>40.024800000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>12.6</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>-40.024800000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1300,8 +4489,15 @@
         <f>F17-F18</f>
         <v>13.3416</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>-13.3416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1326,7 +4522,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1351,7 +4547,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1374,7 +4570,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1386,7 +4582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1396,7 +4592,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1405,7 +4601,7 @@
         <v>No hay licuefacción</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1416,15 +4612,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1BF4A4-05E0-4940-B93B-2A8E38E6C0D0}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,7 +4629,7 @@
     <col min="5" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1447,7 +4644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +4661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1481,7 +4678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1499,7 +4696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +4712,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +4729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1550,7 +4747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +4763,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1575,7 +4772,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1598,7 +4795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1622,8 +4819,12 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>G13*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1650,8 +4851,12 @@
         <f>F14</f>
         <v>37.278000000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="3">G14*-1</f>
+        <v>-37.278000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1678,8 +4883,12 @@
         <f>F15</f>
         <v>42.379200000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>-42.379200000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1706,8 +4915,12 @@
         <f>F16-F19</f>
         <v>31.784400000000012</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>-31.784400000000012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1734,8 +4947,12 @@
         <f>F17-F18</f>
         <v>10.594800000000021</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>-10.594800000000021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +4977,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1785,7 +5002,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1808,7 +5025,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1820,7 +5037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1830,7 +5047,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1839,7 +5056,7 @@
         <v>No hay licuefacción</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1850,5 +5067,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>